--- a/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
+++ b/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13050" windowWidth="28695"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" r:id="rId1" sheetId="1"/>
+    <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Test Module</t>
   </si>
@@ -49,16 +49,25 @@
     <t>arti.chouhan@gate6.com</t>
   </si>
   <si>
+    <t>Gatesix#12</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Blank_Email_TC</t>
+  </si>
+  <si>
+    <t>Verify that proper validation occurs in case when email id field is kept blank</t>
+  </si>
+  <si>
     <t>Gatesix12</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>Blank_Email_TC</t>
-  </si>
-  <si>
-    <t>Verify that proper validation occurs in case when email id field is kept blank</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>Blank_Password_TC</t>
@@ -121,13 +130,10 @@
     <t>Verify that user is able to Signup successfully</t>
   </si>
   <si>
-    <t>Pop Daniel</t>
-  </si>
-  <si>
-    <t>pop@mailinator.com</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t>dane@mailinator.com</t>
   </si>
   <si>
     <t>SignUp_Blank_FullName_TC</t>
@@ -176,9 +182,6 @@
   </si>
   <si>
     <t>Popup_T_and_C_TC</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -188,8 +191,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -231,14 +234,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +256,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,12 +303,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -276,83 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,19 +376,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,163 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,17 +646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -672,8 +664,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,8 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,300 +721,294 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="9" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="17" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="29" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="19" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="19" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="10"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="10"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="49" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
-    <cellStyle builtinId="3" name="Comma" xfId="2"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="4" name="Currency" xfId="5"/>
-    <cellStyle builtinId="5" name="Percent" xfId="6"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
-    <cellStyle builtinId="10" name="Note" xfId="9"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
-    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
-    <cellStyle builtinId="15" name="Title" xfId="16"/>
-    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
-    <cellStyle builtinId="20" name="Input" xfId="21"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
-    <cellStyle builtinId="26" name="Good" xfId="23"/>
-    <cellStyle builtinId="21" name="Output" xfId="24"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
-    <cellStyle builtinId="25" name="Total" xfId="28"/>
-    <cellStyle builtinId="27" name="Bad" xfId="29"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1025,10 +1022,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1192,21 +1189,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1223,7 +1220,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1276,27 +1273,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="42.4285714285714" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="40.4285714285714" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.8571428571429" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.4285714285714" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.7142857142857" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="42.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.4285714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.8571428571429" customWidth="1"/>
+    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="21.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="22" r="1" spans="1:7">
+    <row r="1" ht="22" customHeight="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row ht="28.5" r="2" spans="1:8">
+    <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1339,36 +1336,36 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H2" s="11"/>
     </row>
-    <row customHeight="1" ht="33" r="3" spans="1:7">
+    <row r="3" ht="33" customHeight="1" spans="1:7">
       <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="4" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4" s="12"/>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
@@ -1378,81 +1375,81 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customHeight="1" r="5" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="6" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H6" s="11"/>
     </row>
-    <row ht="42.75" r="7" spans="1:8">
+    <row r="7" ht="42.75" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H7" s="11"/>
     </row>
-    <row ht="28.5" r="8" spans="1:8">
+    <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1460,17 +1457,17 @@
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H8" s="11"/>
     </row>
-    <row ht="28.5" r="9" spans="1:8">
+    <row r="9" ht="28.5" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1478,7 +1475,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H9" s="11"/>
     </row>
@@ -1503,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>3</v>
@@ -1515,24 +1512,24 @@
         <v>5</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="28.5" r="12" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>11</v>
@@ -1541,181 +1538,181 @@
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="13" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:8">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="14" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:8">
       <c r="A14" s="24"/>
       <c r="B14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="15" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:8">
       <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>40</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="16" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:8">
       <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>42</v>
-      </c>
       <c r="E16" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="17" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:8">
       <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>40</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="42.75" r="18" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" spans="1:8">
       <c r="A18" s="24"/>
       <c r="B18" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>36</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="19" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" spans="1:8">
       <c r="A19" s="24"/>
-      <c r="B19" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row ht="28.5" r="20" spans="1:8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:8">
       <c r="A20" s="24"/>
-      <c r="B20" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="B20" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="G20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1724,18 +1721,18 @@
     <mergeCell ref="A12:A20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink display="arti.chouhan@gate6.com" r:id="rId1" ref="D2"/>
-    <hyperlink display="arti.chouhan@gate6.com" r:id="rId1" ref="D4"/>
-    <hyperlink display="arti.chouhan@gate6.com" r:id="rId1" ref="D6"/>
-    <hyperlink display="arti.chouhan1111@gate6.com" r:id="rId2" ref="D7" tooltip="mailto:arti.chouhan1111@gate6.com"/>
-    <hyperlink display="pop@mailinator.com" r:id="rId3" ref="E12"/>
-    <hyperlink display="janice@mailinator.com" r:id="rId4" ref="E13" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink display="janice@mailinator.com" r:id="rId4" ref="E15" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink display="janice.rock" r:id="rId4" ref="E16" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink display="janice@mailinator.com" r:id="rId4" ref="E17" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink display="pop@mailinator.com" r:id="rId3" ref="E18"/>
+    <hyperlink ref="D2" r:id="rId1" display="arti.chouhan@gate6.com"/>
+    <hyperlink ref="D4" r:id="rId1" display="arti.chouhan@gate6.com"/>
+    <hyperlink ref="D6" r:id="rId1" display="arti.chouhan@gate6.com"/>
+    <hyperlink ref="D7" r:id="rId2" display="arti.chouhan1111@gate6.com" tooltip="mailto:arti.chouhan1111@gate6.com"/>
+    <hyperlink ref="E12" r:id="rId3" display="dane@mailinator.com" tooltip="mailto:dane@mailinator.com"/>
+    <hyperlink ref="E13" r:id="rId4" display="janice@mailinator.com" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink ref="E15" r:id="rId4" display="janice@mailinator.com" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink ref="E16" r:id="rId4" display="janice.rock" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink ref="E17" r:id="rId4" display="janice@mailinator.com" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink ref="E18" r:id="rId3" display="dane@mailinator.com" tooltip="mailto:dane@mailinator.com"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
+++ b/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Test Module</t>
   </si>
@@ -55,9 +55,6 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Blank_Email_TC</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>Gatesix12</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Blank_Password_TC</t>
@@ -1278,7 +1272,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1335,37 +1329,32 @@
       <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
+      <c r="G2"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:7">
+    <row r="3" ht="33" customHeight="1" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:7">
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
       <c r="A4" s="12"/>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
@@ -1374,109 +1363,95 @@
       <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6"/>
       <c r="H6" s="11"/>
     </row>
     <row r="7" ht="42.75" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7"/>
       <c r="H7" s="11"/>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+      <c r="G8"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" ht="28.5" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
+      <c r="G9"/>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
@@ -1500,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>3</v>
@@ -1512,24 +1487,24 @@
         <v>5</v>
       </c>
       <c r="H11" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" spans="1:7">
+      <c r="A12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="28.5" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="E12" s="23" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>11</v>
@@ -1537,155 +1512,134 @@
       <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:8">
+    </row>
+    <row r="13" ht="28.5" spans="1:7">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:8">
+    </row>
+    <row r="14" ht="28.5" spans="1:7">
       <c r="A14" s="24"/>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:8">
+    </row>
+    <row r="15" ht="28.5" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:8">
+    </row>
+    <row r="16" ht="28.5" spans="1:7">
       <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:8">
+    </row>
+    <row r="17" ht="28.5" spans="1:7">
       <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="42.75" spans="1:8">
+    </row>
+    <row r="18" ht="42.75" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" ht="28.5" spans="1:8">
+    </row>
+    <row r="19" ht="28.5" spans="1:7">
       <c r="A19" s="24"/>
       <c r="B19" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="30"/>
@@ -1693,26 +1647,20 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:8">
+    </row>
+    <row r="20" ht="28.5" spans="1:7">
       <c r="A20" s="24"/>
       <c r="B20" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
+++ b/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowHeight="13050" windowWidth="28695"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="2">
   <si>
     <t>Test Module</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Popup_T_and_C_TC</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -715,294 +721,294 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="6" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="19" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="12" fillId="18" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="18" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="10"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="3" numFmtId="49" xfId="10"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1016,10 +1022,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1183,21 +1189,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1214,7 +1220,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1267,9 +1273,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G9"/>
@@ -1277,17 +1283,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="42.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.4285714285714" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="25.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="21.7142857142857" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="42.4285714285714" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="40.4285714285714" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.8571428571429" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.4285714285714" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.7142857142857" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1" spans="1:7">
+    <row customHeight="1" ht="22" r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:8">
+    <row ht="28.5" r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1329,10 +1335,12 @@
       <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2"/>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:6">
+    <row customHeight="1" ht="33" r="3" spans="1:6">
       <c r="A3" s="12"/>
       <c r="B3" s="7" t="s">
         <v>13</v>
@@ -1347,8 +1355,11 @@
       <c r="F3" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:6">
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="4" spans="1:6">
       <c r="A4" s="12"/>
       <c r="B4" s="7" t="s">
         <v>16</v>
@@ -1363,8 +1374,11 @@
       <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row customHeight="1" r="5" spans="1:6">
       <c r="A5" s="12"/>
       <c r="B5" s="7" t="s">
         <v>18</v>
@@ -1381,8 +1395,11 @@
       <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:8">
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
         <v>21</v>
@@ -1399,10 +1416,12 @@
       <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" ht="42.75" spans="1:8">
+    <row ht="42.75" r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="15" t="s">
         <v>24</v>
@@ -1419,10 +1438,12 @@
       <c r="F7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G7"/>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" ht="28.5" spans="1:8">
+    <row ht="28.5" r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
         <v>27</v>
@@ -1435,10 +1456,12 @@
       <c r="F8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G8"/>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" ht="28.5" spans="1:8">
+    <row ht="28.5" r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="13" t="s">
         <v>29</v>
@@ -1451,7 +1474,9 @@
       <c r="F9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
@@ -1490,7 +1515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:7">
+    <row ht="28.5" r="12" spans="1:7">
       <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
@@ -1512,8 +1537,11 @@
       <c r="G12" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" ht="28.5" spans="1:7">
+      <c r="H12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="13" spans="1:7">
       <c r="A13" s="24"/>
       <c r="B13" s="7" t="s">
         <v>38</v>
@@ -1531,8 +1559,11 @@
       <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" ht="28.5" spans="1:7">
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="14" spans="1:7">
       <c r="A14" s="24"/>
       <c r="B14" s="7" t="s">
         <v>41</v>
@@ -1550,8 +1581,11 @@
       <c r="G14" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:7">
+      <c r="H14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="15" spans="1:7">
       <c r="A15" s="24"/>
       <c r="B15" s="7" t="s">
         <v>43</v>
@@ -1569,8 +1603,11 @@
       <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" ht="28.5" spans="1:7">
+      <c r="H15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="16" spans="1:7">
       <c r="A16" s="24"/>
       <c r="B16" s="7" t="s">
         <v>44</v>
@@ -1590,8 +1627,11 @@
       <c r="G16" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" ht="28.5" spans="1:7">
+      <c r="H16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="17" spans="1:7">
       <c r="A17" s="24"/>
       <c r="B17" s="13" t="s">
         <v>46</v>
@@ -1611,8 +1651,11 @@
       <c r="G17" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" ht="42.75" spans="1:7">
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="42.75" r="18" spans="1:7">
       <c r="A18" s="24"/>
       <c r="B18" s="15" t="s">
         <v>49</v>
@@ -1633,7 +1676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:7">
+    <row ht="28.5" r="19" spans="1:7">
       <c r="A19" s="24"/>
       <c r="B19" s="28" t="s">
         <v>51</v>
@@ -1647,8 +1690,11 @@
       <c r="G19" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" ht="28.5" spans="1:7">
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row ht="28.5" r="20" spans="1:7">
       <c r="A20" s="24"/>
       <c r="B20" s="28" t="s">
         <v>53</v>
@@ -1661,6 +1707,9 @@
       <c r="F20" s="30"/>
       <c r="G20" s="10" t="s">
         <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1669,18 +1718,18 @@
     <mergeCell ref="A12:A20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="arti.chouhan@gate6.com"/>
-    <hyperlink ref="D4" r:id="rId1" display="arti.chouhan@gate6.com"/>
-    <hyperlink ref="D6" r:id="rId1" display="arti.chouhan@gate6.com"/>
-    <hyperlink ref="D7" r:id="rId2" display="arti.chouhan1111@gate6.com" tooltip="mailto:arti.chouhan1111@gate6.com"/>
-    <hyperlink ref="E12" r:id="rId3" display="dane@mailinator.com" tooltip="mailto:dane@mailinator.com"/>
-    <hyperlink ref="E13" r:id="rId4" display="janice@mailinator.com" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink ref="E15" r:id="rId4" display="janice@mailinator.com" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink ref="E16" r:id="rId4" display="janice.rock" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink ref="E17" r:id="rId4" display="janice@mailinator.com" tooltip="mailto:janice@mailinator.com"/>
-    <hyperlink ref="E18" r:id="rId3" display="dane@mailinator.com" tooltip="mailto:dane@mailinator.com"/>
+    <hyperlink display="arti.chouhan@gate6.com" r:id="rId1" ref="D2"/>
+    <hyperlink display="arti.chouhan@gate6.com" r:id="rId1" ref="D4"/>
+    <hyperlink display="arti.chouhan@gate6.com" r:id="rId1" ref="D6"/>
+    <hyperlink display="arti.chouhan1111@gate6.com" r:id="rId2" ref="D7" tooltip="mailto:arti.chouhan1111@gate6.com"/>
+    <hyperlink display="dane@mailinator.com" r:id="rId3" ref="E12" tooltip="mailto:dane@mailinator.com"/>
+    <hyperlink display="janice@mailinator.com" r:id="rId4" ref="E13" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink display="janice@mailinator.com" r:id="rId4" ref="E15" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink display="janice.rock" r:id="rId4" ref="E16" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink display="janice@mailinator.com" r:id="rId4" ref="E17" tooltip="mailto:janice@mailinator.com"/>
+    <hyperlink display="dane@mailinator.com" r:id="rId3" ref="E18" tooltip="mailto:dane@mailinator.com"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
+++ b/PositivRadio_Website/target/classes/testData/PositivRadio_Website_testData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="2">
   <si>
     <t>Test Module</t>
   </si>
@@ -1675,6 +1675,9 @@
       <c r="G18" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row ht="28.5" r="19" spans="1:7">
       <c r="A19" s="24"/>
